--- a/Code/Results/Cases/Case_0_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2276815620967056</v>
+        <v>0.3259446694196271</v>
       </c>
       <c r="D2">
-        <v>0.1014654436445852</v>
+        <v>0.2238569003226374</v>
       </c>
       <c r="E2">
-        <v>0.05591183231253893</v>
+        <v>0.1048970261287216</v>
       </c>
       <c r="F2">
-        <v>2.951024113386978</v>
+        <v>3.474901115801543</v>
       </c>
       <c r="G2">
-        <v>0.0008171172880091192</v>
+        <v>0.002615568426622285</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.402259654796751</v>
+        <v>3.546465783198983</v>
       </c>
       <c r="L2">
-        <v>0.0273960181103714</v>
+        <v>0.06917241373459504</v>
       </c>
       <c r="M2">
-        <v>1.1286673636437</v>
+        <v>0.9129259863411221</v>
       </c>
       <c r="N2">
-        <v>1.457242699711699</v>
+        <v>2.662435476810145</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2075972192000677</v>
+        <v>0.32325184456964</v>
       </c>
       <c r="D3">
-        <v>0.1031426684918131</v>
+        <v>0.2252201985199136</v>
       </c>
       <c r="E3">
-        <v>0.05251315740656715</v>
+        <v>0.1047270739702633</v>
       </c>
       <c r="F3">
-        <v>2.697337489558109</v>
+        <v>3.434296381402092</v>
       </c>
       <c r="G3">
-        <v>0.000828096153236555</v>
+        <v>0.002622198047681925</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.694358643995088</v>
+        <v>3.392826100289255</v>
       </c>
       <c r="L3">
-        <v>0.02697350255466802</v>
+        <v>0.06941196327400867</v>
       </c>
       <c r="M3">
-        <v>0.9887355931516169</v>
+        <v>0.8845560840256681</v>
       </c>
       <c r="N3">
-        <v>1.499391486308028</v>
+        <v>2.679212313847131</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1957332240768892</v>
+        <v>0.3217662373620414</v>
       </c>
       <c r="D4">
-        <v>0.104377785315819</v>
+        <v>0.2261338222959139</v>
       </c>
       <c r="E4">
-        <v>0.05053303663116182</v>
+        <v>0.1046681294139464</v>
       </c>
       <c r="F4">
-        <v>2.548874702106261</v>
+        <v>3.411345103296512</v>
       </c>
       <c r="G4">
-        <v>0.0008349865099327542</v>
+        <v>0.002626478611197891</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.270273188396231</v>
+        <v>3.30082909010315</v>
       </c>
       <c r="L4">
-        <v>0.02675282349050079</v>
+        <v>0.06958029540156829</v>
       </c>
       <c r="M4">
-        <v>0.9050977310323418</v>
+        <v>0.867718929957654</v>
       </c>
       <c r="N4">
-        <v>1.527573818471254</v>
+        <v>2.690291627598555</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1910040691431192</v>
+        <v>0.3212029201395836</v>
       </c>
       <c r="D5">
-        <v>0.104928888501135</v>
+        <v>0.226525324349538</v>
       </c>
       <c r="E5">
-        <v>0.04975055790699479</v>
+        <v>0.1046555100902928</v>
       </c>
       <c r="F5">
-        <v>2.490014625444061</v>
+        <v>3.402487323719185</v>
       </c>
       <c r="G5">
-        <v>0.0008378348853769718</v>
+        <v>0.002628275967848862</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.099756130776143</v>
+        <v>3.263923237860865</v>
       </c>
       <c r="L5">
-        <v>0.026672029059295</v>
+        <v>0.06965423542116866</v>
       </c>
       <c r="M5">
-        <v>0.8715154310263102</v>
+        <v>0.8610031790066088</v>
       </c>
       <c r="N5">
-        <v>1.539601267175826</v>
+        <v>2.695001513394743</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1902248381435498</v>
+        <v>0.3211119199862225</v>
       </c>
       <c r="D6">
-        <v>0.1050231808067181</v>
+        <v>0.2265914905284845</v>
       </c>
       <c r="E6">
-        <v>0.04962203852996261</v>
+        <v>0.1046541027804118</v>
       </c>
       <c r="F6">
-        <v>2.48033462515842</v>
+        <v>3.401046312678318</v>
       </c>
       <c r="G6">
-        <v>0.0008383103832262808</v>
+        <v>0.00262857762416058</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.071571161281156</v>
+        <v>3.257830177199992</v>
       </c>
       <c r="L6">
-        <v>0.02665914823554161</v>
+        <v>0.06966683584386679</v>
       </c>
       <c r="M6">
-        <v>0.8659673774628729</v>
+        <v>0.8598967988428612</v>
       </c>
       <c r="N6">
-        <v>1.541630222242333</v>
+        <v>2.695795341280245</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.195669032938099</v>
+        <v>0.3217584700365705</v>
       </c>
       <c r="D7">
-        <v>0.1043850289672648</v>
+        <v>0.2261390245918236</v>
       </c>
       <c r="E7">
-        <v>0.05052238788846886</v>
+        <v>0.1046679130842438</v>
       </c>
       <c r="F7">
-        <v>2.548074500396609</v>
+        <v>3.41122364349819</v>
       </c>
       <c r="G7">
-        <v>0.000835024756270472</v>
+        <v>0.002626502636143788</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.267964662682289</v>
+        <v>3.300329007228584</v>
       </c>
       <c r="L7">
-        <v>0.02675169764503948</v>
+        <v>0.06958127094707223</v>
       </c>
       <c r="M7">
-        <v>0.9046428913512941</v>
+        <v>0.8676277708586184</v>
       </c>
       <c r="N7">
-        <v>1.52773387156806</v>
+        <v>2.690354358263249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.220651665453218</v>
+        <v>0.3249812854281089</v>
       </c>
       <c r="D8">
-        <v>0.1019986854856398</v>
+        <v>0.2243110423242172</v>
       </c>
       <c r="E8">
-        <v>0.05471631015350198</v>
+        <v>0.1048289918242347</v>
       </c>
       <c r="F8">
-        <v>2.861912639799158</v>
+        <v>3.460487846171333</v>
       </c>
       <c r="G8">
-        <v>0.0008208736920470223</v>
+        <v>0.002617810864966889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.155755230216926</v>
+        <v>3.493002804488867</v>
       </c>
       <c r="L8">
-        <v>0.02724190568067897</v>
+        <v>0.06925060057131027</v>
       </c>
       <c r="M8">
-        <v>1.079899265561679</v>
+        <v>0.9030227094187211</v>
       </c>
       <c r="N8">
-        <v>1.471274655991081</v>
+        <v>2.668058162260323</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.273978329739279</v>
+        <v>0.3326386447172069</v>
       </c>
       <c r="D9">
-        <v>0.09914841616619441</v>
+        <v>0.2213364108615892</v>
       </c>
       <c r="E9">
-        <v>0.06390975127763454</v>
+        <v>0.1055060711329112</v>
       </c>
       <c r="F9">
-        <v>3.545383499384599</v>
+        <v>3.572947290491157</v>
       </c>
       <c r="G9">
-        <v>0.0007941566936315408</v>
+        <v>0.00260242309108413</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.998926276966017</v>
+        <v>3.889611802509194</v>
       </c>
       <c r="L9">
-        <v>0.02854193144587569</v>
+        <v>0.06877076642233249</v>
       </c>
       <c r="M9">
-        <v>1.44541845361897</v>
+        <v>0.9770941129468298</v>
       </c>
       <c r="N9">
-        <v>1.380689627189952</v>
+        <v>2.630543259273338</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3168105224404769</v>
+        <v>0.3390894383793182</v>
       </c>
       <c r="D10">
-        <v>0.09850100353011015</v>
+        <v>0.2195265515700768</v>
       </c>
       <c r="E10">
-        <v>0.0714537171570484</v>
+        <v>0.1062252354952697</v>
       </c>
       <c r="F10">
-        <v>4.105387911757362</v>
+        <v>3.665445243828742</v>
       </c>
       <c r="G10">
-        <v>0.0007749135282940549</v>
+        <v>0.002592114938967646</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.445241133134573</v>
+        <v>4.192794085137962</v>
       </c>
       <c r="L10">
-        <v>0.02975421725845351</v>
+        <v>0.06852109911072901</v>
       </c>
       <c r="M10">
-        <v>1.733360761923365</v>
+        <v>1.034424629316959</v>
       </c>
       <c r="N10">
-        <v>1.329434851298231</v>
+        <v>2.606810656672451</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.337363713856945</v>
+        <v>0.3422054132770427</v>
       </c>
       <c r="D11">
-        <v>0.09861367878992411</v>
+        <v>0.2187855907370064</v>
       </c>
       <c r="E11">
-        <v>0.07511110143918387</v>
+        <v>0.1066009014630893</v>
       </c>
       <c r="F11">
-        <v>4.377180080402951</v>
+        <v>3.70971609779059</v>
       </c>
       <c r="G11">
-        <v>0.0007661770998602485</v>
+        <v>0.002587639300028006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.131347802263917</v>
+        <v>4.333359409518664</v>
       </c>
       <c r="L11">
-        <v>0.03037533295119133</v>
+        <v>0.0684298808876953</v>
       </c>
       <c r="M11">
-        <v>1.870221837006312</v>
+        <v>1.061153244894584</v>
       </c>
       <c r="N11">
-        <v>1.310272379477311</v>
+        <v>2.596855593491981</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3453281397976582</v>
+        <v>0.3434116142685184</v>
       </c>
       <c r="D12">
-        <v>0.09872462414027439</v>
+        <v>0.2185169223020793</v>
       </c>
       <c r="E12">
-        <v>0.07653396749096686</v>
+        <v>0.1067501596563147</v>
       </c>
       <c r="F12">
-        <v>4.483005989250728</v>
+        <v>3.72679934666192</v>
       </c>
       <c r="G12">
-        <v>0.000762864684206297</v>
+        <v>0.002585974995366796</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.396035551784166</v>
+        <v>4.386974229592113</v>
       </c>
       <c r="L12">
-        <v>0.03062194488406078</v>
+        <v>0.06839855587813304</v>
       </c>
       <c r="M12">
-        <v>1.923060550653091</v>
+        <v>1.071369112308389</v>
       </c>
       <c r="N12">
-        <v>1.303699053384761</v>
+        <v>2.593207668693296</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3436042963503212</v>
+        <v>0.3431506673904039</v>
       </c>
       <c r="D13">
-        <v>0.09869751729990384</v>
+        <v>0.2185742536137099</v>
       </c>
       <c r="E13">
-        <v>0.07622574510407887</v>
+        <v>0.1067177024198713</v>
       </c>
       <c r="F13">
-        <v>4.460077214687971</v>
+        <v>3.723105926864434</v>
       </c>
       <c r="G13">
-        <v>0.0007635783736506007</v>
+        <v>0.002586332078777343</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.338798807779881</v>
+        <v>4.375410075754132</v>
       </c>
       <c r="L13">
-        <v>0.03056830027526658</v>
+        <v>0.06840515914413814</v>
       </c>
       <c r="M13">
-        <v>1.911632763692992</v>
+        <v>1.069164730644331</v>
       </c>
       <c r="N13">
-        <v>1.305082816030321</v>
+        <v>2.593987881044882</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3380151404052469</v>
+        <v>0.3423041211985662</v>
       </c>
       <c r="D14">
-        <v>0.09862137522344483</v>
+        <v>0.2187632479447075</v>
       </c>
       <c r="E14">
-        <v>0.0752273673136834</v>
+        <v>0.1066130405523751</v>
       </c>
       <c r="F14">
-        <v>4.38582534759675</v>
+        <v>3.711115136823281</v>
       </c>
       <c r="G14">
-        <v>0.000765904710127045</v>
+        <v>0.002587501765972548</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.153020889671893</v>
+        <v>4.337762570746804</v>
       </c>
       <c r="L14">
-        <v>0.03039538433300848</v>
+        <v>0.06842723926418159</v>
       </c>
       <c r="M14">
-        <v>1.874547551086323</v>
+        <v>1.061991814058743</v>
       </c>
       <c r="N14">
-        <v>1.309717348952915</v>
+        <v>2.596553029401903</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3346161484990091</v>
+        <v>0.3417890102156207</v>
       </c>
       <c r="D15">
-        <v>0.09858394967785955</v>
+        <v>0.2188805666816478</v>
       </c>
       <c r="E15">
-        <v>0.07462094539038944</v>
+        <v>0.106549844726139</v>
       </c>
       <c r="F15">
-        <v>4.340736988767958</v>
+        <v>3.703812058085362</v>
       </c>
       <c r="G15">
-        <v>0.0007673289054603849</v>
+        <v>0.002588222202470766</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.039888264154399</v>
+        <v>4.314752785672226</v>
       </c>
       <c r="L15">
-        <v>0.03029099972016169</v>
+        <v>0.06844118304887914</v>
       </c>
       <c r="M15">
-        <v>1.851969121801289</v>
+        <v>1.057610510284817</v>
       </c>
       <c r="N15">
-        <v>1.312647911534739</v>
+        <v>2.598140151315576</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.315491086454756</v>
+        <v>0.3388894668163687</v>
       </c>
       <c r="D16">
-        <v>0.09850262193823056</v>
+        <v>0.2195766386340026</v>
       </c>
       <c r="E16">
-        <v>0.0712196828814804</v>
+        <v>0.1062016632178384</v>
       </c>
       <c r="F16">
-        <v>4.088005551707568</v>
+        <v>3.662596465175994</v>
       </c>
       <c r="G16">
-        <v>0.0007754842843403775</v>
+        <v>0.002592411713832305</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.401036397461496</v>
+        <v>4.183661505559769</v>
       </c>
       <c r="L16">
-        <v>0.02971514098970474</v>
+        <v>0.06852751051566841</v>
       </c>
       <c r="M16">
-        <v>1.72454844478635</v>
+        <v>1.032690992888945</v>
       </c>
       <c r="N16">
-        <v>1.330777727252638</v>
+        <v>2.607478243812011</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3040504261745411</v>
+        <v>0.3371572785499382</v>
       </c>
       <c r="D17">
-        <v>0.09856336076158101</v>
+        <v>0.2200248016712862</v>
       </c>
       <c r="E17">
-        <v>0.06919449072578132</v>
+        <v>0.1060005085611557</v>
       </c>
       <c r="F17">
-        <v>3.937626331407586</v>
+        <v>3.637876183441477</v>
       </c>
       <c r="G17">
-        <v>0.0007804874368586408</v>
+        <v>0.002595036413082467</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.016878024938251</v>
+        <v>4.103922705935929</v>
       </c>
       <c r="L17">
-        <v>0.02938062545216624</v>
+        <v>0.06858619737931448</v>
       </c>
       <c r="M17">
-        <v>1.647994898550081</v>
+        <v>1.017570550268061</v>
       </c>
       <c r="N17">
-        <v>1.34301991158064</v>
+        <v>2.613422904055724</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2975687291002203</v>
+        <v>0.33617804166974</v>
       </c>
       <c r="D18">
-        <v>0.09863594044815471</v>
+        <v>0.2202903200726709</v>
       </c>
       <c r="E18">
-        <v>0.06805051126123374</v>
+        <v>0.1058893745617837</v>
       </c>
       <c r="F18">
-        <v>3.852705006323561</v>
+        <v>3.623863941399833</v>
       </c>
       <c r="G18">
-        <v>0.0007833672112340424</v>
+        <v>0.002596566186440644</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.798514882555878</v>
+        <v>4.058307805817549</v>
       </c>
       <c r="L18">
-        <v>0.02919467954294674</v>
+        <v>0.06862205666136489</v>
       </c>
       <c r="M18">
-        <v>1.604504677168478</v>
+        <v>1.008934664082531</v>
       </c>
       <c r="N18">
-        <v>1.350446285966584</v>
+        <v>2.616921220858671</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2953903162795086</v>
+        <v>0.3358494164418744</v>
       </c>
       <c r="D19">
-        <v>0.09866671396168414</v>
+        <v>0.2203815483166522</v>
       </c>
       <c r="E19">
-        <v>0.06766661062533785</v>
+        <v>0.1058525297594883</v>
       </c>
       <c r="F19">
-        <v>3.824209697865626</v>
+        <v>3.619154948983606</v>
       </c>
       <c r="G19">
-        <v>0.0007843427962719485</v>
+        <v>0.00259708760182073</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.725003725377007</v>
+        <v>4.04290594894195</v>
       </c>
       <c r="L19">
-        <v>0.02913279206977393</v>
+        <v>0.06863455931710405</v>
       </c>
       <c r="M19">
-        <v>1.589867974544845</v>
+        <v>1.006021145622213</v>
       </c>
       <c r="N19">
-        <v>1.353024484836013</v>
+        <v>2.618119249936896</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3052579067038721</v>
+        <v>0.3373399049695536</v>
       </c>
       <c r="D20">
-        <v>0.09855293453398417</v>
+        <v>0.2199762916424461</v>
       </c>
       <c r="E20">
-        <v>0.06940788070443205</v>
+        <v>0.1060214491942766</v>
       </c>
       <c r="F20">
-        <v>3.953468644255764</v>
+        <v>3.640486332708946</v>
       </c>
       <c r="G20">
-        <v>0.0007799546705429131</v>
+        <v>0.002594754928810809</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.05749830609227</v>
+        <v>4.112385255059223</v>
       </c>
       <c r="L20">
-        <v>0.02941555742659574</v>
+        <v>0.0685797322737649</v>
       </c>
       <c r="M20">
-        <v>1.656087005280142</v>
+        <v>1.019173827248295</v>
       </c>
       <c r="N20">
-        <v>1.341676292542545</v>
+        <v>2.612781891213473</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3396516428396694</v>
+        <v>0.3425520587056212</v>
       </c>
       <c r="D21">
-        <v>0.09864179967191689</v>
+        <v>0.2187074116871628</v>
       </c>
       <c r="E21">
-        <v>0.07551953832119906</v>
+        <v>0.106643592050478</v>
       </c>
       <c r="F21">
-        <v>4.407552080362279</v>
+        <v>3.714628441310367</v>
       </c>
       <c r="G21">
-        <v>0.0007652215790185229</v>
+        <v>0.002587157373544966</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.207448781189555</v>
+        <v>4.348810042909633</v>
       </c>
       <c r="L21">
-        <v>0.03044585194579241</v>
+        <v>0.06842066645827316</v>
       </c>
       <c r="M21">
-        <v>1.885411413476064</v>
+        <v>1.064096105253</v>
       </c>
       <c r="N21">
-        <v>1.308336771540311</v>
+        <v>2.595796269113464</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3632038274746776</v>
+        <v>0.346111575714815</v>
       </c>
       <c r="D22">
-        <v>0.09910388428155414</v>
+        <v>0.2179476249371106</v>
       </c>
       <c r="E22">
-        <v>0.07973801528322255</v>
+        <v>0.1070910217931633</v>
       </c>
       <c r="F22">
-        <v>4.72152312282887</v>
+        <v>3.764944686653848</v>
       </c>
       <c r="G22">
-        <v>0.0007555646579642061</v>
+        <v>0.002582369753834405</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.987914820436288</v>
+        <v>4.505578483641671</v>
       </c>
       <c r="L22">
-        <v>0.03118654759452255</v>
+        <v>0.06833546231561272</v>
       </c>
       <c r="M22">
-        <v>2.041290373724081</v>
+        <v>1.094005688007684</v>
       </c>
       <c r="N22">
-        <v>1.290581231452876</v>
+        <v>2.585405800326441</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3505248085530468</v>
+        <v>0.3441977365143032</v>
       </c>
       <c r="D23">
-        <v>0.09881654233184634</v>
+        <v>0.2183467528997269</v>
       </c>
       <c r="E23">
-        <v>0.0774639561631929</v>
+        <v>0.1068484761411881</v>
       </c>
       <c r="F23">
-        <v>4.552204603844302</v>
+        <v>3.737918594051422</v>
       </c>
       <c r="G23">
-        <v>0.0007607238102283935</v>
+        <v>0.002584908788978986</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.568407478964104</v>
+        <v>4.421700459241038</v>
       </c>
       <c r="L23">
-        <v>0.03078453396241088</v>
+        <v>0.06837922042466715</v>
       </c>
       <c r="M23">
-        <v>1.95748193413263</v>
+        <v>1.077991678845379</v>
       </c>
       <c r="N23">
-        <v>1.299655852374386</v>
+        <v>2.590886064488643</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3047117087222659</v>
+        <v>0.3372572878057554</v>
       </c>
       <c r="D24">
-        <v>0.09855753163864023</v>
+        <v>0.2199981985384483</v>
       </c>
       <c r="E24">
-        <v>0.0693113441680282</v>
+        <v>0.1060119678805052</v>
       </c>
       <c r="F24">
-        <v>3.946301590644907</v>
+        <v>3.639305662225581</v>
       </c>
       <c r="G24">
-        <v>0.0007801955230959833</v>
+        <v>0.002594882123028561</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.039126166879271</v>
+        <v>4.108558626833997</v>
       </c>
       <c r="L24">
-        <v>0.0293997449367609</v>
+        <v>0.06858264854683682</v>
       </c>
       <c r="M24">
-        <v>1.652426951920418</v>
+        <v>1.018448808081885</v>
       </c>
       <c r="N24">
-        <v>1.342282539913711</v>
+        <v>2.613071441973602</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2589924822093508</v>
+        <v>0.3304229692862322</v>
       </c>
       <c r="D25">
-        <v>0.09969276145275785</v>
+        <v>0.2220754420058384</v>
       </c>
       <c r="E25">
-        <v>0.06130015349440399</v>
+        <v>0.1052840807087136</v>
       </c>
       <c r="F25">
-        <v>3.351657565428241</v>
+        <v>3.540805448120324</v>
       </c>
       <c r="G25">
-        <v>0.0008012968509723624</v>
+        <v>0.002606409844408522</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.486543293945999</v>
+        <v>3.780272996659505</v>
       </c>
       <c r="L25">
-        <v>0.02814919318490894</v>
+        <v>0.06888251644074828</v>
       </c>
       <c r="M25">
-        <v>1.343623796508695</v>
+        <v>0.9565497805366618</v>
       </c>
       <c r="N25">
-        <v>1.402755898872243</v>
+        <v>2.640022830139557</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3259446694196271</v>
+        <v>0.2276815620969899</v>
       </c>
       <c r="D2">
-        <v>0.2238569003226374</v>
+        <v>0.1014654436446989</v>
       </c>
       <c r="E2">
-        <v>0.1048970261287216</v>
+        <v>0.0559118323125638</v>
       </c>
       <c r="F2">
-        <v>3.474901115801543</v>
+        <v>2.951024113386978</v>
       </c>
       <c r="G2">
-        <v>0.002615568426622285</v>
+        <v>0.0008171172879542936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.546465783198983</v>
+        <v>5.402259654796808</v>
       </c>
       <c r="L2">
-        <v>0.06917241373459504</v>
+        <v>0.02739601811035186</v>
       </c>
       <c r="M2">
-        <v>0.9129259863411221</v>
+        <v>1.1286673636437</v>
       </c>
       <c r="N2">
-        <v>2.662435476810145</v>
+        <v>1.457242699711685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.32325184456964</v>
+        <v>0.2075972192000819</v>
       </c>
       <c r="D3">
-        <v>0.2252201985199136</v>
+        <v>0.1031426684918202</v>
       </c>
       <c r="E3">
-        <v>0.1047270739702633</v>
+        <v>0.05251315740659912</v>
       </c>
       <c r="F3">
-        <v>3.434296381402092</v>
+        <v>2.697337489558137</v>
       </c>
       <c r="G3">
-        <v>0.002622198047681925</v>
+        <v>0.0008280961532375709</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.392826100289255</v>
+        <v>4.694358643995088</v>
       </c>
       <c r="L3">
-        <v>0.06941196327400867</v>
+        <v>0.02697350255468933</v>
       </c>
       <c r="M3">
-        <v>0.8845560840256681</v>
+        <v>0.988735593151624</v>
       </c>
       <c r="N3">
-        <v>2.679212313847131</v>
+        <v>1.499391486307985</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3217662373620414</v>
+        <v>0.1957332240775855</v>
       </c>
       <c r="D4">
-        <v>0.2261338222959139</v>
+        <v>0.1043777853155774</v>
       </c>
       <c r="E4">
-        <v>0.1046681294139464</v>
+        <v>0.05053303663115827</v>
       </c>
       <c r="F4">
-        <v>3.411345103296512</v>
+        <v>2.548874702106289</v>
       </c>
       <c r="G4">
-        <v>0.002626478611197891</v>
+        <v>0.0008349865099312666</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.30082909010315</v>
+        <v>4.270273188396288</v>
       </c>
       <c r="L4">
-        <v>0.06958029540156829</v>
+        <v>0.02675282349047059</v>
       </c>
       <c r="M4">
-        <v>0.867718929957654</v>
+        <v>0.9050977310323205</v>
       </c>
       <c r="N4">
-        <v>2.690291627598555</v>
+        <v>1.52757381847124</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3212029201395836</v>
+        <v>0.1910040691433608</v>
       </c>
       <c r="D5">
-        <v>0.226525324349538</v>
+        <v>0.1049288885013766</v>
       </c>
       <c r="E5">
-        <v>0.1046555100902928</v>
+        <v>0.04975055790702321</v>
       </c>
       <c r="F5">
-        <v>3.402487323719185</v>
+        <v>2.490014625444061</v>
       </c>
       <c r="G5">
-        <v>0.002628275967848862</v>
+        <v>0.0008378348853788872</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.263923237860865</v>
+        <v>4.0997561307762</v>
       </c>
       <c r="L5">
-        <v>0.06965423542116866</v>
+        <v>0.02667202905941934</v>
       </c>
       <c r="M5">
-        <v>0.8610031790066088</v>
+        <v>0.8715154310263244</v>
       </c>
       <c r="N5">
-        <v>2.695001513394743</v>
+        <v>1.539601267175897</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3211119199862225</v>
+        <v>0.1902248381435498</v>
       </c>
       <c r="D6">
-        <v>0.2265914905284845</v>
+        <v>0.1050231808066968</v>
       </c>
       <c r="E6">
-        <v>0.1046541027804118</v>
+        <v>0.04962203852995728</v>
       </c>
       <c r="F6">
-        <v>3.401046312678318</v>
+        <v>2.480334625158463</v>
       </c>
       <c r="G6">
-        <v>0.00262857762416058</v>
+        <v>0.0008383103832270145</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.257830177199992</v>
+        <v>4.071571161280986</v>
       </c>
       <c r="L6">
-        <v>0.06966683584386679</v>
+        <v>0.02665914823557358</v>
       </c>
       <c r="M6">
-        <v>0.8598967988428612</v>
+        <v>0.8659673774628729</v>
       </c>
       <c r="N6">
-        <v>2.695795341280245</v>
+        <v>1.541630222242333</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3217584700365705</v>
+        <v>0.1956690329378716</v>
       </c>
       <c r="D7">
-        <v>0.2261390245918236</v>
+        <v>0.1043850289671724</v>
       </c>
       <c r="E7">
-        <v>0.1046679130842438</v>
+        <v>0.05052238788844754</v>
       </c>
       <c r="F7">
-        <v>3.41122364349819</v>
+        <v>2.548074500396623</v>
       </c>
       <c r="G7">
-        <v>0.002626502636143788</v>
+        <v>0.0008350247562717505</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.300329007228584</v>
+        <v>4.267964662682289</v>
       </c>
       <c r="L7">
-        <v>0.06958127094707223</v>
+        <v>0.02675169764500041</v>
       </c>
       <c r="M7">
-        <v>0.8676277708586184</v>
+        <v>0.9046428913512941</v>
       </c>
       <c r="N7">
-        <v>2.690354358263249</v>
+        <v>1.527733871568017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3249812854281089</v>
+        <v>0.2206516654534596</v>
       </c>
       <c r="D8">
-        <v>0.2243110423242172</v>
+        <v>0.1019986854854906</v>
       </c>
       <c r="E8">
-        <v>0.1048289918242347</v>
+        <v>0.05471631015349487</v>
       </c>
       <c r="F8">
-        <v>3.460487846171333</v>
+        <v>2.861912639799158</v>
       </c>
       <c r="G8">
-        <v>0.002617810864966889</v>
+        <v>0.0008208736919823327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.493002804488867</v>
+        <v>5.155755230216869</v>
       </c>
       <c r="L8">
-        <v>0.06925060057131027</v>
+        <v>0.02724190568070384</v>
       </c>
       <c r="M8">
-        <v>0.9030227094187211</v>
+        <v>1.079899265561679</v>
       </c>
       <c r="N8">
-        <v>2.668058162260323</v>
+        <v>1.471274655991053</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3326386447172069</v>
+        <v>0.273978329739279</v>
       </c>
       <c r="D9">
-        <v>0.2213364108615892</v>
+        <v>0.09914841616632941</v>
       </c>
       <c r="E9">
-        <v>0.1055060711329112</v>
+        <v>0.06390975127769849</v>
       </c>
       <c r="F9">
-        <v>3.572947290491157</v>
+        <v>3.545383499384627</v>
       </c>
       <c r="G9">
-        <v>0.00260242309108413</v>
+        <v>0.0007941566936173967</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.889611802509194</v>
+        <v>6.998926276966074</v>
       </c>
       <c r="L9">
-        <v>0.06877076642233249</v>
+        <v>0.0285419314458224</v>
       </c>
       <c r="M9">
-        <v>0.9770941129468298</v>
+        <v>1.445418453618984</v>
       </c>
       <c r="N9">
-        <v>2.630543259273338</v>
+        <v>1.380689627190009</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3390894383793182</v>
+        <v>0.3168105224401927</v>
       </c>
       <c r="D10">
-        <v>0.2195265515700768</v>
+        <v>0.098501003530167</v>
       </c>
       <c r="E10">
-        <v>0.1062252354952697</v>
+        <v>0.07145371715710525</v>
       </c>
       <c r="F10">
-        <v>3.665445243828742</v>
+        <v>4.105387911757362</v>
       </c>
       <c r="G10">
-        <v>0.002592114938967646</v>
+        <v>0.0007749135282902318</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.192794085137962</v>
+        <v>8.445241133134573</v>
       </c>
       <c r="L10">
-        <v>0.06852109911072901</v>
+        <v>0.02975421725823679</v>
       </c>
       <c r="M10">
-        <v>1.034424629316959</v>
+        <v>1.733360761923379</v>
       </c>
       <c r="N10">
-        <v>2.606810656672451</v>
+        <v>1.329434851298245</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3422054132770427</v>
+        <v>0.337363713856746</v>
       </c>
       <c r="D11">
-        <v>0.2187855907370064</v>
+        <v>0.098613678789917</v>
       </c>
       <c r="E11">
-        <v>0.1066009014630893</v>
+        <v>0.07511110143918032</v>
       </c>
       <c r="F11">
-        <v>3.70971609779059</v>
+        <v>4.377180080402979</v>
       </c>
       <c r="G11">
-        <v>0.002587639300028006</v>
+        <v>0.0007661770997825109</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.333359409518664</v>
+        <v>9.131347802263861</v>
       </c>
       <c r="L11">
-        <v>0.0684298808876953</v>
+        <v>0.03037533295138317</v>
       </c>
       <c r="M11">
-        <v>1.061153244894584</v>
+        <v>1.870221837006341</v>
       </c>
       <c r="N11">
-        <v>2.596855593491981</v>
+        <v>1.310272379477311</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3434116142685184</v>
+        <v>0.3453281397976298</v>
       </c>
       <c r="D12">
-        <v>0.2185169223020793</v>
+        <v>0.09872462414032412</v>
       </c>
       <c r="E12">
-        <v>0.1067501596563147</v>
+        <v>0.07653396749090291</v>
       </c>
       <c r="F12">
-        <v>3.72679934666192</v>
+        <v>4.483005989250728</v>
       </c>
       <c r="G12">
-        <v>0.002585974995366796</v>
+        <v>0.0007628646842248731</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.386974229592113</v>
+        <v>9.396035551784053</v>
       </c>
       <c r="L12">
-        <v>0.06839855587813304</v>
+        <v>0.03062194488424907</v>
       </c>
       <c r="M12">
-        <v>1.071369112308389</v>
+        <v>1.923060550653119</v>
       </c>
       <c r="N12">
-        <v>2.593207668693296</v>
+        <v>1.303699053384776</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3431506673904039</v>
+        <v>0.3436042963503496</v>
       </c>
       <c r="D13">
-        <v>0.2185742536137099</v>
+        <v>0.09869751729976173</v>
       </c>
       <c r="E13">
-        <v>0.1067177024198713</v>
+        <v>0.07622574510405755</v>
       </c>
       <c r="F13">
-        <v>3.723105926864434</v>
+        <v>4.460077214687999</v>
       </c>
       <c r="G13">
-        <v>0.002586332078777343</v>
+        <v>0.0007635783735964186</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.375410075754132</v>
+        <v>9.338798807779881</v>
       </c>
       <c r="L13">
-        <v>0.06840515914413814</v>
+        <v>0.03056830027528434</v>
       </c>
       <c r="M13">
-        <v>1.069164730644331</v>
+        <v>1.911632763693007</v>
       </c>
       <c r="N13">
-        <v>2.593987881044882</v>
+        <v>1.305082816030307</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3423041211985662</v>
+        <v>0.3380151404051901</v>
       </c>
       <c r="D14">
-        <v>0.2187632479447075</v>
+        <v>0.09862137522364378</v>
       </c>
       <c r="E14">
-        <v>0.1066130405523751</v>
+        <v>0.0752273673136834</v>
       </c>
       <c r="F14">
-        <v>3.711115136823281</v>
+        <v>4.38582534759675</v>
       </c>
       <c r="G14">
-        <v>0.002587501765972548</v>
+        <v>0.0007659047101250466</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.337762570746804</v>
+        <v>9.153020889672007</v>
       </c>
       <c r="L14">
-        <v>0.06842723926418159</v>
+        <v>0.03039538433309019</v>
       </c>
       <c r="M14">
-        <v>1.061991814058743</v>
+        <v>1.874547551086337</v>
       </c>
       <c r="N14">
-        <v>2.596553029401903</v>
+        <v>1.309717348952887</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3417890102156207</v>
+        <v>0.3346161484993502</v>
       </c>
       <c r="D15">
-        <v>0.2188805666816478</v>
+        <v>0.09858394967777429</v>
       </c>
       <c r="E15">
-        <v>0.106549844726139</v>
+        <v>0.07462094539036457</v>
       </c>
       <c r="F15">
-        <v>3.703812058085362</v>
+        <v>4.340736988767986</v>
       </c>
       <c r="G15">
-        <v>0.002588222202470766</v>
+        <v>0.0007673289054577066</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.314752785672226</v>
+        <v>9.039888264154456</v>
       </c>
       <c r="L15">
-        <v>0.06844118304887914</v>
+        <v>0.03029099972023985</v>
       </c>
       <c r="M15">
-        <v>1.057610510284817</v>
+        <v>1.851969121801318</v>
       </c>
       <c r="N15">
-        <v>2.598140151315576</v>
+        <v>1.312647911534754</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3388894668163687</v>
+        <v>0.3154910864555234</v>
       </c>
       <c r="D16">
-        <v>0.2195766386340026</v>
+        <v>0.09850262193823056</v>
       </c>
       <c r="E16">
-        <v>0.1062016632178384</v>
+        <v>0.07121968288150526</v>
       </c>
       <c r="F16">
-        <v>3.662596465175994</v>
+        <v>4.088005551707596</v>
       </c>
       <c r="G16">
-        <v>0.002592411713832305</v>
+        <v>0.0007754842842091783</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.183661505559769</v>
+        <v>8.40103639746161</v>
       </c>
       <c r="L16">
-        <v>0.06852751051566841</v>
+        <v>0.02971514098971184</v>
       </c>
       <c r="M16">
-        <v>1.032690992888945</v>
+        <v>1.724548444786336</v>
       </c>
       <c r="N16">
-        <v>2.607478243812011</v>
+        <v>1.330777727252652</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3371572785499382</v>
+        <v>0.3040504261745411</v>
       </c>
       <c r="D17">
-        <v>0.2200248016712862</v>
+        <v>0.0985633607615739</v>
       </c>
       <c r="E17">
-        <v>0.1060005085611557</v>
+        <v>0.06919449072570316</v>
       </c>
       <c r="F17">
-        <v>3.637876183441477</v>
+        <v>3.937626331407614</v>
       </c>
       <c r="G17">
-        <v>0.002595036413082467</v>
+        <v>0.0007804874369308709</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.103922705935929</v>
+        <v>8.016878024938251</v>
       </c>
       <c r="L17">
-        <v>0.06858619737931448</v>
+        <v>0.02938062545221953</v>
       </c>
       <c r="M17">
-        <v>1.017570550268061</v>
+        <v>1.64799489855011</v>
       </c>
       <c r="N17">
-        <v>2.613422904055724</v>
+        <v>1.343019911580569</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.33617804166974</v>
+        <v>0.2975687291007603</v>
       </c>
       <c r="D18">
-        <v>0.2202903200726709</v>
+        <v>0.09863594044816182</v>
       </c>
       <c r="E18">
-        <v>0.1058893745617837</v>
+        <v>0.06805051126116979</v>
       </c>
       <c r="F18">
-        <v>3.623863941399833</v>
+        <v>3.852705006323561</v>
       </c>
       <c r="G18">
-        <v>0.002596566186440644</v>
+        <v>0.0007833672112197756</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.058307805817549</v>
+        <v>7.798514882555878</v>
       </c>
       <c r="L18">
-        <v>0.06862205666136489</v>
+        <v>0.02919467954269805</v>
       </c>
       <c r="M18">
-        <v>1.008934664082531</v>
+        <v>1.604504677168478</v>
       </c>
       <c r="N18">
-        <v>2.616921220858671</v>
+        <v>1.350446285966584</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3358494164418744</v>
+        <v>0.2953903162794802</v>
       </c>
       <c r="D19">
-        <v>0.2203815483166522</v>
+        <v>0.09866671396168414</v>
       </c>
       <c r="E19">
-        <v>0.1058525297594883</v>
+        <v>0.06766661062529522</v>
       </c>
       <c r="F19">
-        <v>3.619154948983606</v>
+        <v>3.824209697865598</v>
       </c>
       <c r="G19">
-        <v>0.00259708760182073</v>
+        <v>0.0007843427961979405</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.04290594894195</v>
+        <v>7.725003725376951</v>
       </c>
       <c r="L19">
-        <v>0.06863455931710405</v>
+        <v>0.02913279206977393</v>
       </c>
       <c r="M19">
-        <v>1.006021145622213</v>
+        <v>1.589867974544845</v>
       </c>
       <c r="N19">
-        <v>2.618119249936896</v>
+        <v>1.353024484835927</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3373399049695536</v>
+        <v>0.3052579067041279</v>
       </c>
       <c r="D20">
-        <v>0.2199762916424461</v>
+        <v>0.09855293453421865</v>
       </c>
       <c r="E20">
-        <v>0.1060214491942766</v>
+        <v>0.06940788070444626</v>
       </c>
       <c r="F20">
-        <v>3.640486332708946</v>
+        <v>3.953468644255736</v>
       </c>
       <c r="G20">
-        <v>0.002594754928810809</v>
+        <v>0.0007799546704881345</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.112385255059223</v>
+        <v>8.057498306092157</v>
       </c>
       <c r="L20">
-        <v>0.0685797322737649</v>
+        <v>0.02941555742673785</v>
       </c>
       <c r="M20">
-        <v>1.019173827248295</v>
+        <v>1.656087005280156</v>
       </c>
       <c r="N20">
-        <v>2.612781891213473</v>
+        <v>1.341676292542502</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3425520587056212</v>
+        <v>0.339651642839442</v>
       </c>
       <c r="D21">
-        <v>0.2187074116871628</v>
+        <v>0.09864179967205899</v>
       </c>
       <c r="E21">
-        <v>0.106643592050478</v>
+        <v>0.07551953832123814</v>
       </c>
       <c r="F21">
-        <v>3.714628441310367</v>
+        <v>4.407552080362279</v>
       </c>
       <c r="G21">
-        <v>0.002587157373544966</v>
+        <v>0.0007652215790720356</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.348810042909633</v>
+        <v>9.207448781189385</v>
       </c>
       <c r="L21">
-        <v>0.06842066645827316</v>
+        <v>0.030445851946034</v>
       </c>
       <c r="M21">
-        <v>1.064096105253</v>
+        <v>1.885411413476092</v>
       </c>
       <c r="N21">
-        <v>2.595796269113464</v>
+        <v>1.308336771540297</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.346111575714815</v>
+        <v>0.3632038274743081</v>
       </c>
       <c r="D22">
-        <v>0.2179476249371106</v>
+        <v>0.09910388428151151</v>
       </c>
       <c r="E22">
-        <v>0.1070910217931633</v>
+        <v>0.07973801528319413</v>
       </c>
       <c r="F22">
-        <v>3.764944686653848</v>
+        <v>4.721523122828842</v>
       </c>
       <c r="G22">
-        <v>0.002582369753834405</v>
+        <v>0.0007555646579034842</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.505578483641671</v>
+        <v>9.987914820436458</v>
       </c>
       <c r="L22">
-        <v>0.06833546231561272</v>
+        <v>0.03118654759456518</v>
       </c>
       <c r="M22">
-        <v>1.094005688007684</v>
+        <v>2.041290373724095</v>
       </c>
       <c r="N22">
-        <v>2.585405800326441</v>
+        <v>1.290581231452876</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3441977365143032</v>
+        <v>0.3505248085525352</v>
       </c>
       <c r="D23">
-        <v>0.2183467528997269</v>
+        <v>0.09881654233183923</v>
       </c>
       <c r="E23">
-        <v>0.1068484761411881</v>
+        <v>0.07746395616321067</v>
       </c>
       <c r="F23">
-        <v>3.737918594051422</v>
+        <v>4.552204603844274</v>
       </c>
       <c r="G23">
-        <v>0.002584908788978986</v>
+        <v>0.0007607238101471009</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.421700459241038</v>
+        <v>9.568407478964104</v>
       </c>
       <c r="L23">
-        <v>0.06837922042466715</v>
+        <v>0.03078453396229008</v>
       </c>
       <c r="M23">
-        <v>1.077991678845379</v>
+        <v>1.957481934132616</v>
       </c>
       <c r="N23">
-        <v>2.590886064488643</v>
+        <v>1.299655852374414</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3372572878057554</v>
+        <v>0.304711708722607</v>
       </c>
       <c r="D24">
-        <v>0.2199981985384483</v>
+        <v>0.0985575316384768</v>
       </c>
       <c r="E24">
-        <v>0.1060119678805052</v>
+        <v>0.06931134416802109</v>
       </c>
       <c r="F24">
-        <v>3.639305662225581</v>
+        <v>3.946301590644879</v>
       </c>
       <c r="G24">
-        <v>0.002594882123028561</v>
+        <v>0.0007801955231093147</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.108558626833997</v>
+        <v>8.039126166879385</v>
       </c>
       <c r="L24">
-        <v>0.06858264854683682</v>
+        <v>0.02939974493682485</v>
       </c>
       <c r="M24">
-        <v>1.018448808081885</v>
+        <v>1.652426951920432</v>
       </c>
       <c r="N24">
-        <v>2.613071441973602</v>
+        <v>1.342282539913711</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3304229692862322</v>
+        <v>0.2589924822093934</v>
       </c>
       <c r="D25">
-        <v>0.2220754420058384</v>
+        <v>0.09969276145275074</v>
       </c>
       <c r="E25">
-        <v>0.1052840807087136</v>
+        <v>0.06130015349439688</v>
       </c>
       <c r="F25">
-        <v>3.540805448120324</v>
+        <v>3.351657565428212</v>
       </c>
       <c r="G25">
-        <v>0.002606409844408522</v>
+        <v>0.0008012968510287721</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.780272996659505</v>
+        <v>6.486543293945999</v>
       </c>
       <c r="L25">
-        <v>0.06888251644074828</v>
+        <v>0.02814919318506881</v>
       </c>
       <c r="M25">
-        <v>0.9565497805366618</v>
+        <v>1.343623796508737</v>
       </c>
       <c r="N25">
-        <v>2.640022830139557</v>
+        <v>1.402755898872243</v>
       </c>
       <c r="O25">
         <v>0</v>
